--- a/config_data/01-configuration_datasets/technology_efficiencies_definition.xlsx
+++ b/config_data/01-configuration_datasets/technology_efficiencies_definition.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="13860" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="13860" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Lighting" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Biomass CHP" sheetId="3" r:id="rId3"/>
     <sheet name="District heating" sheetId="4" r:id="rId4"/>
     <sheet name="GSHP_ASHP" sheetId="5" r:id="rId5"/>
+    <sheet name="Cooling technologies" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>Calulating lighting efficiencies</t>
   </si>
@@ -114,13 +115,71 @@
   </si>
   <si>
     <t>Staffel et al. 2012</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">European Commission. (2011). EU Regulation No. 626/2011 - Energy labelling of air conditioners. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Official Journal of the European Union</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>L 178</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(626), 1–72. Retrieved from http://eur-lex.europa.eu/legal-content/EN/TXT/PDF/?uri=CELEX:32011R0626&amp;from=EN</t>
+    </r>
+  </si>
+  <si>
+    <t>Assumed efficiency today</t>
+  </si>
+  <si>
+    <t>Class B</t>
+  </si>
+  <si>
+    <t>SEER</t>
+  </si>
+  <si>
+    <t>Assumption total max efficiency</t>
+  </si>
+  <si>
+    <t>Class A+++</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +201,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -176,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -184,6 +256,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,6 +679,66 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10591800" cy="6600825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1226,7 +1362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
@@ -1241,4 +1377,82 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:Y38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA8" sqref="AA8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6">
+        <v>10</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T6" t="s">
+        <v>33</v>
+      </c>
+      <c r="W6" t="s">
+        <v>34</v>
+      </c>
+      <c r="X6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Y6">
+        <f>X6/10</f>
+        <v>0.49000000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T9" t="s">
+        <v>33</v>
+      </c>
+      <c r="W9" t="s">
+        <v>37</v>
+      </c>
+      <c r="X9">
+        <v>10</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" ref="Y7:Y9" si="0">X9/10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C38" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>